--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Racf4c651215e4133"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rdde7a0a4e23b4dc2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7f0a2ddbb1b84396"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47e175620f534d51"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rba0b192d425a43fa"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R909a154cddf346d8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rdde7a0a4e23b4dc2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rcdfcdbd4e82f44ec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47e175620f534d51"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ffdb0160d664845"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R909a154cddf346d8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R56b582f216504e7b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rcdfcdbd4e82f44ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R04e5734ad92a4b68"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ffdb0160d664845"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e8f9344e83a4731"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R56b582f216504e7b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8fd41b91d01a404e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R04e5734ad92a4b68"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rd567389527a04b51"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e8f9344e83a4731"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra34c623ab0a34e9c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8fd41b91d01a404e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R57aae9b4d5a4409f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rd567389527a04b51"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R53e90194502e4f8d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra34c623ab0a34e9c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R92e6087e799b4c2e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R57aae9b4d5a4409f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1dca670d45474d0f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R53e90194502e4f8d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R96f900c12af5491c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R92e6087e799b4c2e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R70c783aa9d804602"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1dca670d45474d0f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb0d8d89254214d97"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R96f900c12af5491c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R9003657e6ab14532"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R70c783aa9d804602"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15410a38116f4b77"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb0d8d89254214d97"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb26d8169a93b4464"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R9003657e6ab14532"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Radbd5a37ae75438c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15410a38116f4b77"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfb536024264a47b2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb26d8169a93b4464"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfd8b429abac64fb6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Radbd5a37ae75438c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re8c244bf55734327"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfb536024264a47b2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf8cef1b29cb94ed9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfd8b429abac64fb6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R505c025c54454744"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re8c244bf55734327"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R108492ed9ad3473a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf8cef1b29cb94ed9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7f0155c3194443f9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R505c025c54454744"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8de54be8219848c8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R108492ed9ad3473a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rc184ad5a33c84405"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7f0155c3194443f9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd19d6060499d441d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8de54be8219848c8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5bff4783d5b54a44"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rc184ad5a33c84405"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R81218cbb846a436d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd19d6060499d441d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb1e38037a2614a9b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5bff4783d5b54a44"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R27ac3c42ef54450f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/090_LineChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R81218cbb846a436d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0afcb8cb4ba94160"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -183,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb1e38037a2614a9b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R48df92557a0140a1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R27ac3c42ef54450f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra82c01f9e7724e87"/>
 </x:worksheet>
 </file>